--- a/car_data.xlsx
+++ b/car_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2718" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3267" uniqueCount="761">
   <si>
     <t>Şəhər: Bakı</t>
   </si>
@@ -2016,6 +2016,285 @@
   </si>
   <si>
     <t>Yürüş: 324 000 km</t>
+  </si>
+  <si>
+    <t>Model: Challenger</t>
+  </si>
+  <si>
+    <t>Qiymet: 66 000 USD</t>
+  </si>
+  <si>
+    <t>Model: NPR75L-K</t>
+  </si>
+  <si>
+    <t>Mühərrik: 5.2 L/150 a.g./Dizel</t>
+  </si>
+  <si>
+    <t>Qiymet: 84 500 AZN</t>
+  </si>
+  <si>
+    <t>Yürüş: 88 514 km</t>
+  </si>
+  <si>
+    <t>Qiymet: 25 900 AZN</t>
+  </si>
+  <si>
+    <t>Mühərrik: 2.0 L/163 a.g./Benzin</t>
+  </si>
+  <si>
+    <t>Yürüş: 109 000 km</t>
+  </si>
+  <si>
+    <t>Qəzalı: Bəli</t>
+  </si>
+  <si>
+    <t>Qiymet: 15 900 AZN</t>
+  </si>
+  <si>
+    <t>Marka: GAC</t>
+  </si>
+  <si>
+    <t>Model: Trumpchi GS5</t>
+  </si>
+  <si>
+    <t>Mühərrik: 2.0 L/175 a.g./Benzin</t>
+  </si>
+  <si>
+    <t>Qiymet: 14 900 AZN</t>
+  </si>
+  <si>
+    <t>Marka: Kawasaki</t>
+  </si>
+  <si>
+    <t>Model: Ninja 650</t>
+  </si>
+  <si>
+    <t>Mühərrik: 0.7 L/67 a.g./Benzin</t>
+  </si>
+  <si>
+    <t>Yürüş: 2 115 km</t>
+  </si>
+  <si>
+    <t>Qiymet: 20 999 AZN</t>
+  </si>
+  <si>
+    <t>Yürüş: 135 040 km</t>
+  </si>
+  <si>
+    <t>Qiymet: 28 800 AZN</t>
+  </si>
+  <si>
+    <t>Mühərrik: 1.8 L/99 a.g./Hibrid</t>
+  </si>
+  <si>
+    <t>Yürüş: 158 000 km</t>
+  </si>
+  <si>
+    <t>Qiymet: 40 900 AZN</t>
+  </si>
+  <si>
+    <t>Mühərrik: 2.4 L/167 a.g./Benzin</t>
+  </si>
+  <si>
+    <t>Vəziyyəti: Vuruğu var, rənglənib</t>
+  </si>
+  <si>
+    <t>Yürüş: 200 000 km</t>
+  </si>
+  <si>
+    <t>Qiymet: 14 600 AZN</t>
+  </si>
+  <si>
+    <t>Model: Prado</t>
+  </si>
+  <si>
+    <t>Yürüş: 171 500 km</t>
+  </si>
+  <si>
+    <t>Yürüş: 151 278 km</t>
+  </si>
+  <si>
+    <t>Qiymet: 20 300 AZN</t>
+  </si>
+  <si>
+    <t>Model: Vectra</t>
+  </si>
+  <si>
+    <t>Mühərrik: 2.0 L/115 a.g./Benzin</t>
+  </si>
+  <si>
+    <t>Sahiblər: 4 və daha çox</t>
+  </si>
+  <si>
+    <t>Şəhər: Xaçmaz</t>
+  </si>
+  <si>
+    <t>Model: 3110</t>
+  </si>
+  <si>
+    <t>Mühərrik: 2.5 L/131 a.g./Benzin</t>
+  </si>
+  <si>
+    <t>Yürüş: 314 565 km</t>
+  </si>
+  <si>
+    <t>Qiymet: 1 750 AZN</t>
+  </si>
+  <si>
+    <t>Mühərrik: 2.4 L/188 a.g./Benzin</t>
+  </si>
+  <si>
+    <t>Qiymet: 23 500 USD</t>
+  </si>
+  <si>
+    <t>Yürüş: 4 300 km</t>
+  </si>
+  <si>
+    <t>Qiymet: 85 500 USD</t>
+  </si>
+  <si>
+    <t>Mühərrik: 1.8 L/149 a.g./Benzin</t>
+  </si>
+  <si>
+    <t>Yürüş: 93 000 km</t>
+  </si>
+  <si>
+    <t>Qiymet: 11 200 AZN</t>
+  </si>
+  <si>
+    <t>Marka: Tofas</t>
+  </si>
+  <si>
+    <t>Model: Sahin</t>
+  </si>
+  <si>
+    <t>Rəng: Sarı</t>
+  </si>
+  <si>
+    <t>Mühərrik: 1.4 L/71 a.g./Benzin</t>
+  </si>
+  <si>
+    <t>Yürüş: 72 007 km</t>
+  </si>
+  <si>
+    <t>Qiymet: 2 500 AZN</t>
+  </si>
+  <si>
+    <t>Marka: Li Auto</t>
+  </si>
+  <si>
+    <t>Model: L9</t>
+  </si>
+  <si>
+    <t>Mühərrik: 1.5 L/449 a.g./Plug-in Hibrid</t>
+  </si>
+  <si>
+    <t>Qiymet: 69 000 USD</t>
+  </si>
+  <si>
+    <t>Qiymet: 10 000 USD</t>
+  </si>
+  <si>
+    <t>Şəhər: Qazax</t>
+  </si>
+  <si>
+    <t>Mühərrik: 1.5 L/98 a.g./Hibrid</t>
+  </si>
+  <si>
+    <t>Yürüş: 190 000 km</t>
+  </si>
+  <si>
+    <t>Şəhər: Şəki</t>
+  </si>
+  <si>
+    <t>Mühərrik: 1.8 L/116 a.g./Benzin</t>
+  </si>
+  <si>
+    <t>Yürüş: 277 817 km</t>
+  </si>
+  <si>
+    <t>Qiymet: 6 800 AZN</t>
+  </si>
+  <si>
+    <t>Model: C 230</t>
+  </si>
+  <si>
+    <t>Mühərrik: 2.3 L/150 a.g./Benzin</t>
+  </si>
+  <si>
+    <t>Yürüş: 208 000 km</t>
+  </si>
+  <si>
+    <t>Qiymet: 8 700 AZN</t>
+  </si>
+  <si>
+    <t>Model: bZ4X</t>
+  </si>
+  <si>
+    <t>Yürüş: 5 500 km</t>
+  </si>
+  <si>
+    <t>Qiymet: 22 800 USD</t>
+  </si>
+  <si>
+    <t>Marka: Hummer</t>
+  </si>
+  <si>
+    <t>Model: H3</t>
+  </si>
+  <si>
+    <t>Mühərrik: 3.7 L/245 a.g./Benzin</t>
+  </si>
+  <si>
+    <t>Model: Model 3</t>
+  </si>
+  <si>
+    <t>Mühərrik: 0.1 L/462 a.g./Elektro</t>
+  </si>
+  <si>
+    <t>Yürüş: 19 000 km</t>
+  </si>
+  <si>
+    <t>Qiymet: 34 200 USD</t>
+  </si>
+  <si>
+    <t>Yürüş: 240 000 km</t>
+  </si>
+  <si>
+    <t>Yürüş: 37 908 km</t>
+  </si>
+  <si>
+    <t>Qiymet: 78 540 USD</t>
+  </si>
+  <si>
+    <t>Yürüş: 288 603 km</t>
+  </si>
+  <si>
+    <t>Qiymet: 18 000 AZN</t>
+  </si>
+  <si>
+    <t>Mühərrik: 1.4 L/153 a.g./Benzin</t>
+  </si>
+  <si>
+    <t>Yürüş: 130 685 km</t>
+  </si>
+  <si>
+    <t>Qiymet: 20 390 AZN</t>
+  </si>
+  <si>
+    <t>Model: LX 470</t>
+  </si>
+  <si>
+    <t>Mühərrik: 4.7 L/234 a.g./Benzin</t>
+  </si>
+  <si>
+    <t>Qiymet: 23 500 AZN</t>
+  </si>
+  <si>
+    <t>Mühərrik: 3.8 L/250 a.g./Benzin</t>
+  </si>
+  <si>
+    <t>Qiymet: 37 500 AZN</t>
   </si>
 </sst>
 </file>
@@ -2060,7 +2339,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P180"/>
+  <dimension ref="A1:Q216"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -10580,6 +10859,1725 @@
         <v>530</v>
       </c>
     </row>
+    <row r="181">
+      <c r="A181" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B181" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="C181" t="s" s="0">
+        <v>668</v>
+      </c>
+      <c r="D181" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E181" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="F181" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G181" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="H181" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I181" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J181" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="K181" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="L181" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="M181" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="N181" t="s" s="0">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B182" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="C182" t="s" s="0">
+        <v>670</v>
+      </c>
+      <c r="D182" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E182" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="F182" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G182" t="s" s="0">
+        <v>671</v>
+      </c>
+      <c r="H182" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I182" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J182" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="K182" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="L182" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="M182" t="s" s="0">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B183" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C183" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="D183" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="E183" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F183" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G183" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H183" t="s" s="0">
+        <v>673</v>
+      </c>
+      <c r="I183" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J183" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K183" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L183" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M183" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="N183" t="s" s="0">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B184" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="C184" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="D184" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E184" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F184" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="G184" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="H184" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I184" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J184" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K184" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="L184" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="M184" t="s" s="0">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B185" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="C185" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="D185" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="E185" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F185" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G185" t="s" s="0">
+        <v>675</v>
+      </c>
+      <c r="H185" t="s" s="0">
+        <v>676</v>
+      </c>
+      <c r="I185" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J185" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K185" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L185" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M185" t="s" s="0">
+        <v>584</v>
+      </c>
+      <c r="N185" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="O185" t="s" s="0">
+        <v>677</v>
+      </c>
+      <c r="P185" t="s" s="0">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B186" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="C186" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="D186" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="E186" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F186" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G186" t="s" s="0">
+        <v>681</v>
+      </c>
+      <c r="H186" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="I186" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J186" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K186" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L186" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M186" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N186" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O186" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="P186" t="s" s="0">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B187" t="s" s="0">
+        <v>683</v>
+      </c>
+      <c r="C187" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="D187" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E187" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="F187" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G187" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="H187" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="I187" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J187" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="K187" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L187" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="M187" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N187" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O187" t="s" s="0">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B188" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="C188" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="D188" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="E188" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F188" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G188" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="H188" t="s" s="0">
+        <v>688</v>
+      </c>
+      <c r="I188" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J188" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="K188" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L188" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M188" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="N188" t="s" s="0">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B189" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C189" t="s" s="0">
+        <v>632</v>
+      </c>
+      <c r="D189" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="E189" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="F189" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G189" t="s" s="0">
+        <v>690</v>
+      </c>
+      <c r="H189" t="s" s="0">
+        <v>691</v>
+      </c>
+      <c r="I189" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="J189" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K189" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L189" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M189" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N189" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O189" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B190" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="C190" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="D190" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="E190" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F190" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G190" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="H190" t="s" s="0">
+        <v>659</v>
+      </c>
+      <c r="I190" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J190" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K190" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L190" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M190" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="N190" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O190" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="P190" t="s" s="0">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B191" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C191" t="s" s="0">
+        <v>458</v>
+      </c>
+      <c r="D191" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="E191" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F191" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G191" t="s" s="0">
+        <v>693</v>
+      </c>
+      <c r="H191" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="I191" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J191" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K191" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L191" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M191" t="s" s="0">
+        <v>694</v>
+      </c>
+      <c r="N191" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="O191" t="s" s="0">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B192" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C192" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="D192" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="E192" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="F192" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G192" t="s" s="0">
+        <v>511</v>
+      </c>
+      <c r="H192" t="s" s="0">
+        <v>695</v>
+      </c>
+      <c r="I192" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J192" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K192" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L192" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M192" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="N192" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O192" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="P192" t="s" s="0">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B193" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C193" t="s" s="0">
+        <v>697</v>
+      </c>
+      <c r="D193" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="E193" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F193" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G193" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="H193" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="I193" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J193" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="K193" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L193" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M193" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="N193" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O193" t="s" s="0">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="0">
+        <v>620</v>
+      </c>
+      <c r="B194" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C194" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D194" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="E194" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F194" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G194" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="H194" t="s" s="0">
+        <v>698</v>
+      </c>
+      <c r="I194" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J194" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K194" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L194" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M194" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N194" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O194" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="P194" t="s" s="0">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B195" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C195" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="D195" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="E195" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F195" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="G195" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="H195" t="s" s="0">
+        <v>699</v>
+      </c>
+      <c r="I195" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J195" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K195" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L195" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M195" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N195" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O195" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="P195" t="s" s="0">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B196" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C196" t="s" s="0">
+        <v>701</v>
+      </c>
+      <c r="D196" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="E196" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F196" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="G196" t="s" s="0">
+        <v>702</v>
+      </c>
+      <c r="H196" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="I196" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J196" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K196" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L196" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="M196" t="s" s="0">
+        <v>703</v>
+      </c>
+      <c r="N196" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O196" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="P196" t="s" s="0">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="0">
+        <v>704</v>
+      </c>
+      <c r="B197" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C197" t="s" s="0">
+        <v>705</v>
+      </c>
+      <c r="D197" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="E197" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F197" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G197" t="s" s="0">
+        <v>706</v>
+      </c>
+      <c r="H197" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="I197" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J197" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="K197" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L197" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M197" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="N197" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O197" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="P197" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B198" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C198" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D198" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="E198" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F198" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G198" t="s" s="0">
+        <v>709</v>
+      </c>
+      <c r="H198" t="s" s="0">
+        <v>583</v>
+      </c>
+      <c r="I198" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J198" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="K198" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L198" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="M198" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="N198" t="s" s="0">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B199" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C199" t="s" s="0">
+        <v>612</v>
+      </c>
+      <c r="D199" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E199" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F199" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G199" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="H199" t="s" s="0">
+        <v>711</v>
+      </c>
+      <c r="I199" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J199" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="K199" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L199" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="M199" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="N199" t="s" s="0">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B200" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="C200" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D200" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="E200" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F200" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G200" t="s" s="0">
+        <v>713</v>
+      </c>
+      <c r="H200" t="s" s="0">
+        <v>627</v>
+      </c>
+      <c r="I200" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J200" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K200" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L200" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M200" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="N200" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O200" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="P200" t="s" s="0">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="0">
+        <v>704</v>
+      </c>
+      <c r="B201" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C201" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D201" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E201" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F201" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G201" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H201" t="s" s="0">
+        <v>714</v>
+      </c>
+      <c r="I201" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J201" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K201" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L201" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="M201" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N201" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O201" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="P201" t="s" s="0">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="B202" t="s" s="0">
+        <v>716</v>
+      </c>
+      <c r="C202" t="s" s="0">
+        <v>717</v>
+      </c>
+      <c r="D202" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="E202" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F202" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="G202" t="s" s="0">
+        <v>719</v>
+      </c>
+      <c r="H202" t="s" s="0">
+        <v>720</v>
+      </c>
+      <c r="I202" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J202" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="K202" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L202" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M202" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="N202" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O202" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="P202" t="s" s="0">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B203" t="s" s="0">
+        <v>722</v>
+      </c>
+      <c r="C203" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="D203" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="E203" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F203" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G203" t="s" s="0">
+        <v>724</v>
+      </c>
+      <c r="H203" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I203" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J203" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="K203" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="L203" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="M203" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="N203" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O203" t="s" s="0">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B204" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C204" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="D204" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="E204" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F204" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G204" t="s" s="0">
+        <v>625</v>
+      </c>
+      <c r="H204" t="s" s="0">
+        <v>629</v>
+      </c>
+      <c r="I204" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J204" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="K204" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L204" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M204" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N204" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O204" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="P204" t="s" s="0">
+        <v>677</v>
+      </c>
+      <c r="Q204" t="s" s="0">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="0">
+        <v>727</v>
+      </c>
+      <c r="B205" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C205" t="s" s="0">
+        <v>632</v>
+      </c>
+      <c r="D205" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="E205" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="F205" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="G205" t="s" s="0">
+        <v>728</v>
+      </c>
+      <c r="H205" t="s" s="0">
+        <v>729</v>
+      </c>
+      <c r="I205" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="J205" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K205" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L205" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="M205" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="N205" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O205" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="P205" t="s" s="0">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="0">
+        <v>730</v>
+      </c>
+      <c r="B206" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C206" t="s" s="0">
+        <v>701</v>
+      </c>
+      <c r="D206" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="E206" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F206" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="G206" t="s" s="0">
+        <v>731</v>
+      </c>
+      <c r="H206" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="I206" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J206" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K206" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L206" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="M206" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="N206" t="s" s="0">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B207" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C207" t="s" s="0">
+        <v>734</v>
+      </c>
+      <c r="D207" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="E207" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F207" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="G207" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="H207" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="I207" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J207" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="K207" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L207" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="M207" t="s" s="0">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B208" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C208" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="D208" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E208" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F208" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G208" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="H208" t="s" s="0">
+        <v>739</v>
+      </c>
+      <c r="I208" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="J208" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K208" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L208" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M208" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N208" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O208" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="P208" t="s" s="0">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B209" t="s" s="0">
+        <v>741</v>
+      </c>
+      <c r="C209" t="s" s="0">
+        <v>742</v>
+      </c>
+      <c r="D209" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="E209" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F209" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G209" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="H209" t="s" s="0">
+        <v>695</v>
+      </c>
+      <c r="I209" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J209" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="K209" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L209" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M209" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="N209" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O209" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="P209" t="s" s="0">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B210" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C210" t="s" s="0">
+        <v>744</v>
+      </c>
+      <c r="D210" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E210" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F210" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G210" t="s" s="0">
+        <v>745</v>
+      </c>
+      <c r="H210" t="s" s="0">
+        <v>746</v>
+      </c>
+      <c r="I210" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="J210" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="K210" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L210" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M210" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="N210" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O210" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="P210" t="s" s="0">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B211" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="C211" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="D211" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="E211" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F211" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G211" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="H211" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="I211" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J211" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K211" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L211" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M211" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N211" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O211" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="P211" t="s" s="0">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B212" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C212" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="D212" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="E212" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F212" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G212" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="H212" t="s" s="0">
+        <v>749</v>
+      </c>
+      <c r="I212" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J212" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="K212" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L212" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M212" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="N212" t="s" s="0">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B213" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C213" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="D213" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="E213" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F213" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G213" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="H213" t="s" s="0">
+        <v>751</v>
+      </c>
+      <c r="I213" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J213" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K213" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L213" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M213" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="N213" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O213" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="P213" t="s" s="0">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B214" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="C214" t="s" s="0">
+        <v>593</v>
+      </c>
+      <c r="D214" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E214" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F214" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G214" t="s" s="0">
+        <v>753</v>
+      </c>
+      <c r="H214" t="s" s="0">
+        <v>754</v>
+      </c>
+      <c r="I214" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J214" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="K214" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L214" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M214" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="N214" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O214" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="P214" t="s" s="0">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B215" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="C215" t="s" s="0">
+        <v>756</v>
+      </c>
+      <c r="D215" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="E215" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F215" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="G215" t="s" s="0">
+        <v>757</v>
+      </c>
+      <c r="H215" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="I215" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J215" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="K215" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L215" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M215" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="N215" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O215" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="P215" t="s" s="0">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B216" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="C216" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="D216" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="E216" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F216" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G216" t="s" s="0">
+        <v>759</v>
+      </c>
+      <c r="H216" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="I216" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J216" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="K216" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L216" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M216" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N216" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O216" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="P216" t="s" s="0">
+        <v>760</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
